--- a/Throttle/BOM.xlsx
+++ b/Throttle/BOM.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanso\Desktop\Go-Kart\Throttle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4477BDD3-D5F8-41F5-A5AD-1CEF3E5B2C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D384B6FD-9B8D-4340-8639-F168DAFC62D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="9480" windowWidth="4425" windowHeight="1020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$F$1:$F$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$F$1:$F$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
   <si>
     <t>Part Number</t>
   </si>
@@ -96,15 +96,6 @@
     <t>https://www.digikey.com/en/products/detail/phoenix-contact/1989748/2513965</t>
   </si>
   <si>
-    <t>WM14766-ND</t>
-  </si>
-  <si>
-    <t>Connector Header Through Hole 4 position 0.098" (2.50mm)</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/molex/0353120460/3185042</t>
-  </si>
-  <si>
     <t>J1 Mate</t>
   </si>
   <si>
@@ -136,6 +127,54 @@
   </si>
   <si>
     <t>https://www.digikey.com/en/products/detail/cts-electrocomponents/284TBCF103A26A1/3045559</t>
+  </si>
+  <si>
+    <t>1772-1230-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/raf-electronic-hardware/4501-440-AL/7680641</t>
+  </si>
+  <si>
+    <t>1528-1195-ND</t>
+  </si>
+  <si>
+    <t>Breadboard, General Purpose Plated Through Hole (PTH) 5 Hole Pad (Both Sides) -</t>
+  </si>
+  <si>
+    <t>Hex Standoff Threaded #4-40 Aluminum 0.250" (6.35mm) 1/4" -</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/adafruit-industries-llc/1609/5353655?s=N4IgTCBcDaIIwFYwA4C0c4E4GoHIBEQBdAXyA</t>
+  </si>
+  <si>
+    <t>M6-1.0 x 100mm DIN 912 Hex Drive Class 12.9 Black Oxide Finish Alloy Steel Socket Cap Screw</t>
+  </si>
+  <si>
+    <t>Fastenal</t>
+  </si>
+  <si>
+    <t>https://www.fastenal.com/products/details/2139580</t>
+  </si>
+  <si>
+    <t>M6-1.0 DIN 934 Yellow Zinc Finish Steel Class 10 Hex Nut</t>
+  </si>
+  <si>
+    <t>https://www.fastenal.com/products/details/210129065</t>
+  </si>
+  <si>
+    <t>M6 x 12mm OD DIN 125 Grade HV200 Yellow Zinc Finish Steel Type A General Purpose Flat Washer</t>
+  </si>
+  <si>
+    <t>https://www.fastenal.com/products/details/11545703</t>
+  </si>
+  <si>
+    <t>23-0022292051-ND</t>
+  </si>
+  <si>
+    <t>Connector Header Through Hole 5 position 0.100" (2.54mm)</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/molex/0022292051/1130591</t>
   </si>
 </sst>
 </file>
@@ -367,9 +406,7 @@
     <border>
       <left/>
       <right/>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -380,7 +417,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -436,6 +473,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -719,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,207 +804,302 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="37.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>9</v>
-      </c>
+      <c r="A2" s="14"/>
       <c r="B2" s="8" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D2" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="15">
-        <v>1.45</v>
+        <v>0.46</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="12">
-        <f t="shared" ref="G2:G7" si="0">D2*E2</f>
-        <v>1.45</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>12</v>
+        <f t="shared" ref="G2:G12" si="0">D2*E2</f>
+        <v>1.84</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="36.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>13</v>
-      </c>
+      <c r="A3" s="14"/>
       <c r="B3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>20</v>
+        <v>32</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>33</v>
       </c>
       <c r="D3" s="8">
         <v>1</v>
       </c>
       <c r="E3" s="15">
-        <v>0.19</v>
+        <v>4.5</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="12">
         <f t="shared" si="0"/>
-        <v>0.19</v>
+        <v>4.5</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="36.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>24</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="8">
+        <v>2139580</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="D4" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="15">
-        <v>0.33</v>
+        <v>1.75</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="G4" s="12">
         <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="8">
+        <v>210129065</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="8">
+        <v>2</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0.35</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="12">
+        <f>D5*E5</f>
+        <v>0.7</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="8">
+        <v>11545703</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="8">
+        <v>2</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="12">
+        <f t="shared" si="0"/>
+        <v>0.35</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1</v>
+      </c>
+      <c r="E7" s="15">
+        <v>1.45</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="12">
+        <f t="shared" ref="G7" si="1">D7*E7</f>
+        <v>1.45</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="15">
+        <v>1.43</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="12">
+        <f t="shared" si="0"/>
+        <v>1.43</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1</v>
+      </c>
+      <c r="E9" s="15">
         <v>0.33</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="F9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="12">
+        <f t="shared" si="0"/>
+        <v>0.33</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="8">
+      <c r="D10" s="8">
         <v>4</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E10" s="15">
         <v>0.12</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G10" s="12">
         <f t="shared" si="0"/>
         <v>0.48</v>
       </c>
-      <c r="H5" s="21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="H10" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D11" s="8">
         <v>1</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E11" s="15">
         <v>0.31</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G11" s="12">
         <f t="shared" si="0"/>
         <v>0.31</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H11" s="21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+    <row r="12" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="18">
+      <c r="B12" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="18">
         <v>2</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E12" s="19">
         <v>11.9</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F12" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G12" s="12">
         <f t="shared" si="0"/>
         <v>23.8</v>
       </c>
-      <c r="H7" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F8" s="6" t="s">
+      <c r="H12" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="7">
-        <f>SUM(G2:G7)</f>
-        <v>26.560000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
+      <c r="G13" s="7">
+        <f>SUM(G2:G12)</f>
+        <v>38.69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -985,19 +1120,54 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="C20" s="2"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="F1:F8" xr:uid="{6E1E27F3-E074-4B73-9092-3525721CDF08}"/>
+  <autoFilter ref="F1:F13" xr:uid="{6E1E27F3-E074-4B73-9092-3525721CDF08}"/>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{33DC7B95-4817-441C-9E22-06840A71647E}"/>
-    <hyperlink ref="H6" r:id="rId2" xr:uid="{64BAB13F-B30B-4B0B-ACE7-C1EE47F3A0FD}"/>
-    <hyperlink ref="H3" r:id="rId3" xr:uid="{ADEC0EE1-78C2-4315-BD67-D7A5A12D96AC}"/>
-    <hyperlink ref="H4" r:id="rId4" xr:uid="{2E46D6D4-5EA5-4929-BFC0-39F4578CA246}"/>
-    <hyperlink ref="H5" r:id="rId5" xr:uid="{59E26E3F-DD76-4AB7-B068-D36B59A60DC1}"/>
-    <hyperlink ref="H7" r:id="rId6" xr:uid="{D98A2524-D5B2-461B-B44A-6DC450A0FBB6}"/>
+    <hyperlink ref="H11" r:id="rId1" xr:uid="{64BAB13F-B30B-4B0B-ACE7-C1EE47F3A0FD}"/>
+    <hyperlink ref="H9" r:id="rId2" xr:uid="{2E46D6D4-5EA5-4929-BFC0-39F4578CA246}"/>
+    <hyperlink ref="H10" r:id="rId3" xr:uid="{59E26E3F-DD76-4AB7-B068-D36B59A60DC1}"/>
+    <hyperlink ref="H12" r:id="rId4" xr:uid="{D98A2524-D5B2-461B-B44A-6DC450A0FBB6}"/>
+    <hyperlink ref="H2" r:id="rId5" xr:uid="{BD014AAA-BC15-434D-B61B-BF84D628BBF3}"/>
+    <hyperlink ref="H3" r:id="rId6" xr:uid="{1A0D3763-1151-40B8-81B2-A4908ECAFB9E}"/>
+    <hyperlink ref="H4" r:id="rId7" xr:uid="{F009226F-1730-466F-959B-6920938F576E}"/>
+    <hyperlink ref="H5" r:id="rId8" xr:uid="{72CBA629-837D-4249-B07F-D770F5AC4BF9}"/>
+    <hyperlink ref="H6" r:id="rId9" xr:uid="{830EBCB9-7DCE-4294-B7E9-F7B401A1A5F6}"/>
+    <hyperlink ref="H7" r:id="rId10" xr:uid="{3A8EF826-6100-4EDC-8D36-386C755CF4EE}"/>
+    <hyperlink ref="H8" r:id="rId11" xr:uid="{91D31F4A-D10A-4EDE-B42E-90E15AAD8C2B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Throttle/BOM.xlsx
+++ b/Throttle/BOM.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanso\Desktop\Go-Kart\Throttle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D384B6FD-9B8D-4340-8639-F168DAFC62D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBD3F38-2436-4F55-8CB3-E32AFFF056F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9480" windowWidth="4425" windowHeight="1020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="49170" yWindow="6870" windowWidth="4425" windowHeight="1020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$F$1:$F$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$F$1:$F$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
   <si>
     <t>Part Number</t>
   </si>
@@ -99,15 +99,6 @@
     <t>J1 Mate</t>
   </si>
   <si>
-    <t>WM3139-ND</t>
-  </si>
-  <si>
-    <t>4 Rectangular Connectors - Housings Receptacle Natural 0.098" (2.50mm)</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/molex/0351550400/2405538</t>
-  </si>
-  <si>
     <t>J1 Crimps</t>
   </si>
   <si>
@@ -175,6 +166,24 @@
   </si>
   <si>
     <t>https://www.digikey.com/en/products/detail/molex/0022292051/1130591</t>
+  </si>
+  <si>
+    <t>23-0010112053-ND</t>
+  </si>
+  <si>
+    <t>5 Rectangular Connectors - Housings Receptacle White 0.100" (2.54mm)</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/molex/0010112053/171981</t>
+  </si>
+  <si>
+    <t>H216-ND</t>
+  </si>
+  <si>
+    <t>#4-40 Hex Nut 0.250" (6.35mm) 1/4" -</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/b-f-fastener-supply/HNZ-440/5738</t>
   </si>
 </sst>
 </file>
@@ -759,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,10 +815,10 @@
     <row r="2" spans="1:8" ht="37.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
       <c r="B2" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D2" s="8">
         <v>4</v>
@@ -821,291 +830,310 @@
         <v>7</v>
       </c>
       <c r="G2" s="12">
-        <f t="shared" ref="G2:G12" si="0">D2*E2</f>
+        <f t="shared" ref="G2:G13" si="0">D2*E2</f>
         <v>1.84</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="36.75" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="8" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D3" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E3" s="15">
-        <v>4.5</v>
+        <v>2.12E-2</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="12">
         <f t="shared" si="0"/>
+        <v>8.48E-2</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+      <c r="E4" s="15">
         <v>4.5</v>
       </c>
-      <c r="H3" s="21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="8">
-        <v>2139580</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="8">
-        <v>2</v>
-      </c>
-      <c r="E4" s="15">
-        <v>1.75</v>
-      </c>
       <c r="F4" s="8" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="G4" s="12">
         <f t="shared" si="0"/>
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="8">
-        <v>210129065</v>
+        <v>2139580</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D5" s="8">
         <v>2</v>
       </c>
       <c r="E5" s="15">
-        <v>0.35</v>
+        <v>1.75</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G5" s="12">
-        <f>D5*E5</f>
-        <v>0.7</v>
+        <f t="shared" si="0"/>
+        <v>3.5</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="48.75" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="8">
-        <v>11545703</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>41</v>
+        <v>210129065</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="D6" s="8">
         <v>2</v>
       </c>
       <c r="E6" s="15">
+        <v>0.35</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="12">
+        <f>D6*E6</f>
+        <v>0.7</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="8">
+        <v>11545703</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="8">
+        <v>2</v>
+      </c>
+      <c r="E7" s="15">
         <v>0.17499999999999999</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="12">
+      <c r="F7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="12">
         <f t="shared" si="0"/>
         <v>0.35</v>
       </c>
-      <c r="H6" s="21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="36.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="8">
-        <v>1</v>
-      </c>
-      <c r="E7" s="15">
-        <v>1.45</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="12">
-        <f t="shared" ref="G7" si="1">D7*E7</f>
-        <v>1.45</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>12</v>
+      <c r="H7" s="21" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D8" s="8">
         <v>1</v>
       </c>
       <c r="E8" s="15">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G8" s="12">
+        <f t="shared" ref="G8" si="1">D8*E8</f>
+        <v>1.45</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1</v>
+      </c>
+      <c r="E9" s="15">
+        <v>1.43</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="12">
         <f t="shared" si="0"/>
         <v>1.43</v>
       </c>
-      <c r="H8" s="21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="36.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="H9" s="21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="8">
+      <c r="B10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="8">
         <v>1</v>
       </c>
-      <c r="E9" s="15">
-        <v>0.33</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="12">
-        <f t="shared" si="0"/>
-        <v>0.33</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="8">
-        <v>4</v>
-      </c>
       <c r="E10" s="15">
-        <v>0.12</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G10" s="12">
         <f t="shared" si="0"/>
-        <v>0.48</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>14</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D11" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E11" s="15">
-        <v>0.31</v>
+        <v>0.12</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G11" s="12">
         <f t="shared" si="0"/>
+        <v>0.48</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1</v>
+      </c>
+      <c r="E12" s="15">
         <v>0.31</v>
       </c>
-      <c r="H11" s="21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="18">
-        <v>2</v>
-      </c>
-      <c r="E12" s="19">
-        <v>11.9</v>
-      </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G12" s="12">
         <f t="shared" si="0"/>
+        <v>0.31</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="18">
+        <v>2</v>
+      </c>
+      <c r="E13" s="19">
+        <v>11.9</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="12">
+        <f t="shared" si="0"/>
         <v>23.8</v>
       </c>
-      <c r="H12" s="20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F13" s="6" t="s">
+      <c r="H13" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="7">
-        <f>SUM(G2:G12)</f>
-        <v>38.69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
+      <c r="G14" s="7">
+        <f>SUM(G2:G13)</f>
+        <v>38.7348</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1120,13 +1148,13 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
-      <c r="C20" s="2"/>
+      <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="C21" s="2"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
@@ -1154,20 +1182,27 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="F1:F13" xr:uid="{6E1E27F3-E074-4B73-9092-3525721CDF08}"/>
+  <autoFilter ref="F1:F14" xr:uid="{6E1E27F3-E074-4B73-9092-3525721CDF08}"/>
   <hyperlinks>
-    <hyperlink ref="H11" r:id="rId1" xr:uid="{64BAB13F-B30B-4B0B-ACE7-C1EE47F3A0FD}"/>
-    <hyperlink ref="H9" r:id="rId2" xr:uid="{2E46D6D4-5EA5-4929-BFC0-39F4578CA246}"/>
-    <hyperlink ref="H10" r:id="rId3" xr:uid="{59E26E3F-DD76-4AB7-B068-D36B59A60DC1}"/>
-    <hyperlink ref="H12" r:id="rId4" xr:uid="{D98A2524-D5B2-461B-B44A-6DC450A0FBB6}"/>
-    <hyperlink ref="H2" r:id="rId5" xr:uid="{BD014AAA-BC15-434D-B61B-BF84D628BBF3}"/>
-    <hyperlink ref="H3" r:id="rId6" xr:uid="{1A0D3763-1151-40B8-81B2-A4908ECAFB9E}"/>
-    <hyperlink ref="H4" r:id="rId7" xr:uid="{F009226F-1730-466F-959B-6920938F576E}"/>
-    <hyperlink ref="H5" r:id="rId8" xr:uid="{72CBA629-837D-4249-B07F-D770F5AC4BF9}"/>
-    <hyperlink ref="H6" r:id="rId9" xr:uid="{830EBCB9-7DCE-4294-B7E9-F7B401A1A5F6}"/>
-    <hyperlink ref="H7" r:id="rId10" xr:uid="{3A8EF826-6100-4EDC-8D36-386C755CF4EE}"/>
-    <hyperlink ref="H8" r:id="rId11" xr:uid="{91D31F4A-D10A-4EDE-B42E-90E15AAD8C2B}"/>
+    <hyperlink ref="H12" r:id="rId1" xr:uid="{64BAB13F-B30B-4B0B-ACE7-C1EE47F3A0FD}"/>
+    <hyperlink ref="H11" r:id="rId2" xr:uid="{59E26E3F-DD76-4AB7-B068-D36B59A60DC1}"/>
+    <hyperlink ref="H13" r:id="rId3" xr:uid="{D98A2524-D5B2-461B-B44A-6DC450A0FBB6}"/>
+    <hyperlink ref="H2" r:id="rId4" xr:uid="{BD014AAA-BC15-434D-B61B-BF84D628BBF3}"/>
+    <hyperlink ref="H4" r:id="rId5" xr:uid="{1A0D3763-1151-40B8-81B2-A4908ECAFB9E}"/>
+    <hyperlink ref="H5" r:id="rId6" xr:uid="{F009226F-1730-466F-959B-6920938F576E}"/>
+    <hyperlink ref="H6" r:id="rId7" xr:uid="{72CBA629-837D-4249-B07F-D770F5AC4BF9}"/>
+    <hyperlink ref="H7" r:id="rId8" xr:uid="{830EBCB9-7DCE-4294-B7E9-F7B401A1A5F6}"/>
+    <hyperlink ref="H8" r:id="rId9" xr:uid="{3A8EF826-6100-4EDC-8D36-386C755CF4EE}"/>
+    <hyperlink ref="H9" r:id="rId10" xr:uid="{91D31F4A-D10A-4EDE-B42E-90E15AAD8C2B}"/>
+    <hyperlink ref="H10" r:id="rId11" xr:uid="{4C9880FE-AB22-4C69-9E0C-648A13D6681F}"/>
+    <hyperlink ref="H3" r:id="rId12" xr:uid="{477747F5-9A7D-4F9A-ABCD-C98B4B78D295}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
